--- a/0_1_Output_Data/5_ifoCAST_error_series_full_since_2021/ifoCAst_errors_full_first_since_2021.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full_since_2021/ifoCAst_errors_full_first_since_2021.xlsx
@@ -1921,72 +1921,102 @@
         <v>0.2315426864241067</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C113">
         <v>0.5186180304241067</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <v>0.791995474</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C114">
         <v>0.5462623554241067</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>0.788120887</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C115">
         <v>0.3054124294241067</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>0.597740902</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C116">
         <v>0.3912781354241067</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <v>0.620527487</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B117">
         <v>0.0999529544241067</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="C117">
+        <v>0.241887844</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B118">
         <v>0.05603945542410671</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="C118">
+        <v>0.331651578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="C119">
+        <v>0.154182215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="C120">
+        <v>0.166899468</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="C121">
+        <v>0.042359665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="C122">
+        <v>0.266698307</v>
       </c>
     </row>
   </sheetData>
